--- a/eldenringMarker_en2zhtw.xlsx
+++ b/eldenringMarker_en2zhtw.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieltschang/Desktop/SideProjectLocal/zh-TW.EldenRing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEEEA9F1-355A-C64E-8B3B-98F3C764E97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226147C2-E22B-2544-8144-C5388F18DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34380" yWindow="-25380" windowWidth="31140" windowHeight="17320" xr2:uid="{630BD053-EA56-644D-91D7-5C58A7FB0E50}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A9C79-9FE8-5B44-B4E0-B605CACDF090}">
   <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="172" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/eldenringMarker_en2zhtw.xlsx
+++ b/eldenringMarker_en2zhtw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieltschang/Desktop/SideProjectLocal/zh-TW.EldenRing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226147C2-E22B-2544-8144-C5388F18DA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185502CC-6B72-CF4F-B9D7-B0E97E983698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34380" yWindow="-25380" windowWidth="31140" windowHeight="17320" xr2:uid="{630BD053-EA56-644D-91D7-5C58A7FB0E50}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{630BD053-EA56-644D-91D7-5C58A7FB0E50}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="223">
   <si>
     <t>意思</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cartacombs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>封印監牢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +500,430 @@
   </si>
   <si>
     <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>church</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goldentree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黃金樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cathedral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大教堂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ruins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>廢墟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史東威爾城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stormveilcastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stormgate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風暴關卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tunnel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castlemourne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩恩城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>towel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fieldtower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>town</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityruins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>獻祭大橋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sunkentown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>herosgrave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄墓地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frenziedflamevillage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癲火村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cariamanor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡利亞城寨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>precipice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>古遺跡斷涯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guardians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大升降機</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volcanomanor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山官邸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forthaight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadedcastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日蔭城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leyndell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>divinetower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神授塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dominula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風車村</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>windmill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>風車牧場</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>studyhall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡利亞書齋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monstertemple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野獸神殿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redmanecastle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅獅子城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giantforge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人火焰大鍋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>儀典鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>castlesol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索爾城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑟利亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crumbling-faromazula</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐漸崩毀的法姆亞茲拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mikailatree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米凱拉的聖樹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖樹分枝 艾布雷菲爾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nokrin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永恆之城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>underground-temple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地下靈廟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location_50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒙格溫王朝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rayalucaria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷亞盧卡利亞學院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourbelfries</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四鐘塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whetblade Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(level)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>whetstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glinstone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red-hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sanctified</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砥石小刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鐵質砥石刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輝石砥石刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炙熱砥石刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神聖砥石刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆黑砥石刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Catacombs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,16 +1315,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB7A9C79-9FE8-5B44-B4E0-B605CACDF090}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="172" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" customWidth="1"/>
     <col min="4" max="4" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -946,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -1078,7 +1499,7 @@
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1100,7 +1521,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>26</v>
@@ -1111,7 +1532,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>222</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -1119,10 +1540,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -1130,10 +1551,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1141,10 +1562,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -1152,10 +1573,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -1163,10 +1584,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -1174,10 +1595,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1185,21 +1606,21 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -1207,21 +1628,21 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -1229,10 +1650,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>4</v>
@@ -1240,10 +1661,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -1251,10 +1672,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -1262,10 +1683,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -1273,10 +1694,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -1284,10 +1705,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -1295,10 +1716,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -1306,10 +1727,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -1317,10 +1738,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
@@ -1328,10 +1749,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -1339,10 +1760,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
@@ -1350,10 +1771,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
         <v>4</v>
@@ -1361,10 +1782,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
         <v>4</v>
@@ -1372,10 +1793,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -1383,10 +1804,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -1394,10 +1815,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -1405,10 +1826,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -1416,10 +1837,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -1427,10 +1848,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -1438,10 +1859,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -1449,10 +1870,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -1460,10 +1881,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -1471,10 +1892,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -1482,10 +1903,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -1493,10 +1914,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -1504,10 +1925,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -1515,10 +1936,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -1526,10 +1947,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -1537,17 +1958,592 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>129</v>
+      </c>
+      <c r="D79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>14</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>19</v>
+      </c>
+      <c r="B85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86" t="s">
+        <v>158</v>
+      </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>21</v>
+      </c>
+      <c r="B87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C88" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>26</v>
+      </c>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>28</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>31</v>
+      </c>
+      <c r="B97" t="s">
+        <v>180</v>
+      </c>
+      <c r="C97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>34</v>
+      </c>
+      <c r="B100" t="s">
+        <v>186</v>
+      </c>
+      <c r="C100" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>35</v>
+      </c>
+      <c r="B101" t="s">
+        <v>188</v>
+      </c>
+      <c r="C101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>36</v>
+      </c>
+      <c r="B102" t="s">
+        <v>190</v>
+      </c>
+      <c r="C102" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
+        <v>192</v>
+      </c>
+      <c r="C103" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>194</v>
+      </c>
+      <c r="C104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>39</v>
+      </c>
+      <c r="B105" t="s">
+        <v>196</v>
+      </c>
+      <c r="C105" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>40</v>
+      </c>
+      <c r="B106" t="s">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107" t="s">
+        <v>199</v>
+      </c>
+      <c r="C107" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" t="s">
+        <v>118</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="s">
+        <v>209</v>
+      </c>
+      <c r="C115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="s">
+        <v>210</v>
+      </c>
+      <c r="C116" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>3</v>
+      </c>
+      <c r="B117" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>212</v>
+      </c>
+      <c r="C118" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>213</v>
+      </c>
+      <c r="C119" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>